--- a/Other/Transcriptomics/RTL_Genomics_Library_Sample_Submission_Form_SGurr.xlsx
+++ b/Other/Transcriptomics/RTL_Genomics_Library_Sample_Submission_Form_SGurr.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samuel.gurr\Documents\Github_repositories\Airradians_CellularMolecular_OA\Other\Transcriptomics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samjg\Documents\Github_repositories\Airradians_CellularMolecular_OA\Other\Transcriptomics\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8262A8-1B37-4B2B-ABAF-70AF49D63C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1176" yWindow="0" windowWidth="19152" windowHeight="8964"/>
+    <workbookView xWindow="-21855" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample log" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Sample log'!$A$1:$M$38</definedName>
   </definedNames>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,6 +29,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="106">
   <si>
     <t>Primary Contact</t>
   </si>
@@ -520,15 +523,21 @@
       <t>Well ID</t>
     </r>
   </si>
+  <si>
+    <t>Concen.  (ng/ul)</t>
+  </si>
+  <si>
+    <t>Total Amount (ng)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -587,15 +596,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -681,6 +681,29 @@
       <name val="Univers"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -702,7 +725,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -843,19 +866,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -868,191 +878,209 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2546,10 +2574,10 @@
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1102881</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>83146</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2592,9 +2620,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2632,9 +2660,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2669,7 +2697,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2704,7 +2732,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2877,3021 +2905,1650 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Y160"/>
+  <dimension ref="A1:Y58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="69" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" customWidth="1"/>
+    <col min="1" max="1" width="17.453125" customWidth="1"/>
+    <col min="2" max="2" width="15.36328125" style="39" customWidth="1"/>
+    <col min="3" max="3" width="14.6328125" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="19.109375" customWidth="1"/>
-    <col min="7" max="7" width="28.44140625" customWidth="1"/>
-    <col min="8" max="8" width="7.44140625" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" customWidth="1"/>
-    <col min="10" max="10" width="4.44140625" customWidth="1"/>
-    <col min="11" max="11" width="6.44140625" customWidth="1"/>
-    <col min="12" max="12" width="9.44140625" customWidth="1"/>
-    <col min="13" max="13" width="10.44140625" customWidth="1"/>
+    <col min="6" max="6" width="8.81640625" customWidth="1"/>
+    <col min="7" max="7" width="18.1796875" customWidth="1"/>
+    <col min="8" max="8" width="5.7265625" customWidth="1"/>
+    <col min="9" max="9" width="17.6328125" customWidth="1"/>
+    <col min="10" max="10" width="4.453125" customWidth="1"/>
+    <col min="11" max="11" width="6.453125" customWidth="1"/>
+    <col min="12" max="12" width="6.1796875" customWidth="1"/>
+    <col min="13" max="13" width="8.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
-      <c r="B1" s="67"/>
+      <c r="B1" s="37"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="24"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:25" ht="15">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="67"/>
+      <c r="B2" s="37"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="47"/>
-      <c r="K2" s="17"/>
-    </row>
-    <row r="3" spans="1:25" ht="15">
+      <c r="G2" s="49"/>
+      <c r="K2" s="9"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
-      <c r="B3" s="67"/>
+      <c r="B3" s="37"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="44" t="s">
+      <c r="D3" s="20"/>
+      <c r="E3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="F3" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="47"/>
-      <c r="K3" s="17"/>
-    </row>
-    <row r="4" spans="1:25">
+      <c r="G3" s="49"/>
+      <c r="K3" s="9"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
-      <c r="B4" s="68"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="44" t="s">
+      <c r="D4" s="20"/>
+      <c r="E4" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-    </row>
-    <row r="5" spans="1:25">
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
-      <c r="B5" s="68"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="44" t="s">
+      <c r="D5" s="20"/>
+      <c r="E5" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="47" t="s">
+      <c r="F5" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="47"/>
-    </row>
-    <row r="6" spans="1:25">
+      <c r="G5" s="49"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
-      <c r="B6" s="68"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="44" t="s">
+      <c r="D6" s="21"/>
+      <c r="E6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="47" t="s">
+      <c r="F6" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="47"/>
-    </row>
-    <row r="7" spans="1:25" ht="15">
+      <c r="G6" s="49"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
-      <c r="B7" s="68"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="44" t="s">
+      <c r="D7" s="20"/>
+      <c r="E7" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="47"/>
-      <c r="H7" s="20"/>
-      <c r="K7" s="17"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="11"/>
+      <c r="K7" s="9"/>
       <c r="R7" s="2"/>
     </row>
-    <row r="8" spans="1:25" ht="15">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
-      <c r="B8" s="68"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="44" t="s">
+      <c r="D8" s="20"/>
+      <c r="E8" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="47" t="s">
+      <c r="F8" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="G8" s="47"/>
-      <c r="K8" s="17"/>
-    </row>
-    <row r="9" spans="1:25" ht="15">
+      <c r="G8" s="49"/>
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
-      <c r="B9" s="68"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="44" t="s">
+      <c r="D9" s="20"/>
+      <c r="E9" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="K9" s="17"/>
-    </row>
-    <row r="10" spans="1:25">
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="K9" s="9"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
-      <c r="B10" s="68"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="45" t="s">
+      <c r="D10" s="20"/>
+      <c r="E10" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="62" t="s">
+      <c r="F10" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="48"/>
-      <c r="L10" s="19"/>
-    </row>
-    <row r="11" spans="1:25" ht="15">
+      <c r="G10" s="52"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
-      <c r="B11" s="68"/>
+      <c r="B11" s="38"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="18"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="10"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:25" ht="15">
-      <c r="D12" s="37" t="s">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="D12" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="49" t="s">
+      <c r="F12" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="49"/>
+      <c r="G12" s="47"/>
       <c r="I12" s="1"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-    </row>
-    <row r="13" spans="1:25" ht="16.2">
-      <c r="D13" s="34"/>
-      <c r="E13" s="33" t="s">
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:25" ht="16" x14ac:dyDescent="0.4">
+      <c r="D13" s="23"/>
+      <c r="E13" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="49" t="s">
+      <c r="F13" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="49"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="28"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="17"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:25" ht="16.2">
-      <c r="D14" s="31"/>
-      <c r="E14" s="33" t="s">
+    <row r="14" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D14" s="20"/>
+      <c r="E14" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="I14" s="29"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="I14" s="18"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:25">
-      <c r="A15" s="19"/>
-      <c r="B15" s="70"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="33" t="s">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="D15" s="20"/>
+      <c r="E15" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="49" t="s">
+      <c r="F15" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="49"/>
+      <c r="G15" s="47"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
-      <c r="Y15" s="8"/>
-    </row>
-    <row r="16" spans="1:25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="71"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="33" t="s">
+      <c r="Y15" s="4"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A16" s="16"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="49" t="s">
+      <c r="F16" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="49"/>
-      <c r="H16" s="20"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="11"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
-      <c r="Y16" s="8"/>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" s="15"/>
-      <c r="B17" s="71"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="33" t="s">
+      <c r="Y16" s="4"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A17" s="5"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="49" t="s">
+      <c r="F17" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="49"/>
+      <c r="G17" s="47"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
     </row>
-    <row r="18" spans="1:20">
-      <c r="A18" s="19"/>
-      <c r="B18" s="70"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="33" t="s">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="D18" s="21"/>
+      <c r="E18" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="66">
+      <c r="F18" s="46">
         <v>4405677335</v>
       </c>
-      <c r="G18" s="66"/>
+      <c r="G18" s="46"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
     </row>
-    <row r="19" spans="1:20">
-      <c r="D19" s="35"/>
-      <c r="E19" s="33" t="s">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="D19" s="21"/>
+      <c r="E19" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="1:20">
-      <c r="D20" s="35"/>
-      <c r="E20" s="36" t="s">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="D20" s="21"/>
+      <c r="E20" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="73" t="s">
+      <c r="F20" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="G20" s="74"/>
+      <c r="G20" s="51"/>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="1:20" ht="15" thickBot="1">
-      <c r="A21" s="21"/>
-      <c r="B21" s="72"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="S21" s="16"/>
-    </row>
-    <row r="22" spans="1:20" ht="50.4" thickBot="1">
-      <c r="A22" s="39" t="s">
+    <row r="21" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="12"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:19" ht="71" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="C22" s="41" t="s">
+      <c r="C22" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="41" t="s">
+      <c r="D22" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="64" t="s">
+      <c r="E22" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="42" t="s">
+      <c r="F22" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="42" t="s">
+      <c r="G22" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="H22" s="51" t="s">
+      <c r="H22" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="42" t="s">
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="M22" s="43" t="s">
+      <c r="M22" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="R22" s="10"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="16"/>
-    </row>
-    <row r="23" spans="1:20" ht="16.2">
-      <c r="A23" s="63" t="s">
+      <c r="N22" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="O22" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="R22" s="6"/>
+      <c r="S22" s="5"/>
+    </row>
+    <row r="23" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="63" t="s">
+      <c r="B23" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="65">
+      <c r="E23" s="36">
         <v>5000000</v>
       </c>
-      <c r="F23" s="25">
+      <c r="F23" s="14">
         <v>50</v>
       </c>
-      <c r="G23" s="63" t="s">
+      <c r="G23" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="54">
+        <v>30</v>
+      </c>
+      <c r="O23" s="54">
+        <v>1500</v>
+      </c>
       <c r="S23" s="1"/>
-      <c r="T23" s="19"/>
-    </row>
-    <row r="24" spans="1:20" ht="16.2">
-      <c r="A24" s="46" t="s">
+    </row>
+    <row r="24" spans="1:19" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="63" t="s">
+      <c r="B24" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="D24" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="65">
+      <c r="E24" s="36">
         <v>5000000</v>
       </c>
-      <c r="F24" s="25">
+      <c r="F24" s="14">
         <v>50</v>
       </c>
-      <c r="G24" s="63" t="s">
+      <c r="G24" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="30"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="54">
+        <v>30</v>
+      </c>
+      <c r="O24" s="54">
+        <v>1500</v>
+      </c>
       <c r="S24" s="1"/>
-      <c r="T24" s="19"/>
-    </row>
-    <row r="25" spans="1:20" ht="16.2">
-      <c r="A25" s="46" t="s">
+    </row>
+    <row r="25" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="63" t="s">
+      <c r="B25" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="65">
+      <c r="E25" s="36">
         <v>5000000</v>
       </c>
-      <c r="F25" s="25">
+      <c r="F25" s="14">
         <v>50</v>
       </c>
-      <c r="G25" s="63" t="s">
+      <c r="G25" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="54">
+        <v>30</v>
+      </c>
+      <c r="O25" s="54">
+        <v>1500</v>
+      </c>
       <c r="S25" s="1"/>
-      <c r="T25" s="19"/>
-    </row>
-    <row r="26" spans="1:20" ht="16.2">
-      <c r="A26" s="46" t="s">
+    </row>
+    <row r="26" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="63" t="s">
+      <c r="B26" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="D26" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="65">
+      <c r="E26" s="36">
         <v>5000000</v>
       </c>
-      <c r="F26" s="25">
+      <c r="F26" s="14">
         <v>50</v>
       </c>
-      <c r="G26" s="63" t="s">
+      <c r="G26" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="H26" s="50"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="S26" s="17"/>
-      <c r="T26" s="19"/>
-    </row>
-    <row r="27" spans="1:20" ht="16.2">
-      <c r="A27" s="46" t="s">
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="54">
+        <v>30</v>
+      </c>
+      <c r="O26" s="54">
+        <v>1500</v>
+      </c>
+      <c r="S26" s="9"/>
+    </row>
+    <row r="27" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="63" t="s">
+      <c r="B27" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="25" t="s">
+      <c r="D27" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E27" s="65">
+      <c r="E27" s="36">
         <v>5000000</v>
       </c>
-      <c r="F27" s="25">
+      <c r="F27" s="14">
         <v>50</v>
       </c>
-      <c r="G27" s="63" t="s">
+      <c r="G27" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="H27" s="50"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-    </row>
-    <row r="28" spans="1:20" ht="16.2">
-      <c r="A28" s="46" t="s">
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="54">
+        <v>30</v>
+      </c>
+      <c r="O27" s="54">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="63" t="s">
+      <c r="B28" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="25" t="s">
+      <c r="D28" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="65">
+      <c r="E28" s="36">
         <v>5000000</v>
       </c>
-      <c r="F28" s="25">
+      <c r="F28" s="14">
         <v>50</v>
       </c>
-      <c r="G28" s="63" t="s">
+      <c r="G28" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="50"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-    </row>
-    <row r="29" spans="1:20" ht="16.2">
-      <c r="A29" s="46" t="s">
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="54">
+        <v>30</v>
+      </c>
+      <c r="O28" s="54">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="63" t="s">
+      <c r="B29" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="25" t="s">
+      <c r="D29" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="65">
+      <c r="E29" s="36">
         <v>5000000</v>
       </c>
-      <c r="F29" s="25">
+      <c r="F29" s="14">
         <v>50</v>
       </c>
-      <c r="G29" s="63" t="s">
+      <c r="G29" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="H29" s="50"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-    </row>
-    <row r="30" spans="1:20" ht="16.2">
-      <c r="A30" s="46" t="s">
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="54">
+        <v>30</v>
+      </c>
+      <c r="O29" s="54">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="63" t="s">
+      <c r="B30" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="25" t="s">
+      <c r="D30" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E30" s="65">
+      <c r="E30" s="36">
         <v>5000000</v>
       </c>
-      <c r="F30" s="25">
+      <c r="F30" s="14">
         <v>50</v>
       </c>
-      <c r="G30" s="63" t="s">
+      <c r="G30" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="H30" s="50"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-    </row>
-    <row r="31" spans="1:20" ht="16.2">
-      <c r="A31" s="46" t="s">
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="54">
+        <v>30</v>
+      </c>
+      <c r="O30" s="54">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="63" t="s">
+      <c r="B31" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="25" t="s">
+      <c r="D31" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E31" s="65">
+      <c r="E31" s="36">
         <v>5000000</v>
       </c>
-      <c r="F31" s="25">
+      <c r="F31" s="14">
         <v>50</v>
       </c>
-      <c r="G31" s="63" t="s">
+      <c r="G31" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="H31" s="50"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-    </row>
-    <row r="32" spans="1:20" ht="16.2">
-      <c r="A32" s="46" t="s">
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="54">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="O31" s="54">
+        <v>969.99999999999989</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="63" t="s">
+      <c r="B32" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D32" s="25" t="s">
+      <c r="D32" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="65">
+      <c r="E32" s="36">
         <v>5000000</v>
       </c>
-      <c r="F32" s="25">
+      <c r="F32" s="14">
         <v>50</v>
       </c>
-      <c r="G32" s="63" t="s">
+      <c r="G32" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="H32" s="50"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-    </row>
-    <row r="33" spans="1:13" ht="16.2">
-      <c r="A33" s="46" t="s">
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="54">
+        <v>30</v>
+      </c>
+      <c r="O32" s="54">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="63" t="s">
+      <c r="B33" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="C33" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="25" t="s">
+      <c r="D33" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E33" s="65">
+      <c r="E33" s="36">
         <v>5000000</v>
       </c>
-      <c r="F33" s="25">
+      <c r="F33" s="14">
         <v>50</v>
       </c>
-      <c r="G33" s="63" t="s">
+      <c r="G33" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="H33" s="50"/>
-      <c r="I33" s="50"/>
-      <c r="J33" s="50"/>
-      <c r="K33" s="50"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-    </row>
-    <row r="34" spans="1:13" ht="16.2">
-      <c r="A34" s="46" t="s">
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="54">
+        <v>30</v>
+      </c>
+      <c r="O33" s="54">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="63" t="s">
+      <c r="B34" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="C34" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D34" s="25" t="s">
+      <c r="D34" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E34" s="65">
+      <c r="E34" s="36">
         <v>5000000</v>
       </c>
-      <c r="F34" s="25">
+      <c r="F34" s="14">
         <v>50</v>
       </c>
-      <c r="G34" s="63" t="s">
+      <c r="G34" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="H34" s="50"/>
-      <c r="I34" s="50"/>
-      <c r="J34" s="50"/>
-      <c r="K34" s="50"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-    </row>
-    <row r="35" spans="1:13" ht="16.2">
-      <c r="A35" s="46" t="s">
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="42"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="54">
+        <v>30</v>
+      </c>
+      <c r="O34" s="54">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="46" t="s">
+      <c r="B35" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="25" t="s">
+      <c r="C35" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D35" s="25" t="s">
+      <c r="D35" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E35" s="65">
+      <c r="E35" s="36">
         <v>5000000</v>
       </c>
-      <c r="F35" s="25">
+      <c r="F35" s="14">
         <v>50</v>
       </c>
-      <c r="G35" s="63" t="s">
+      <c r="G35" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="H35" s="50"/>
-      <c r="I35" s="50"/>
-      <c r="J35" s="50"/>
-      <c r="K35" s="50"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-    </row>
-    <row r="36" spans="1:13" ht="16.2">
-      <c r="A36" s="46" t="s">
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="42"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="54">
+        <v>30</v>
+      </c>
+      <c r="O35" s="54">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="46" t="s">
+      <c r="B36" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="C36" s="25" t="s">
+      <c r="C36" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D36" s="25" t="s">
+      <c r="D36" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E36" s="65">
+      <c r="E36" s="36">
         <v>5000000</v>
       </c>
-      <c r="F36" s="25">
+      <c r="F36" s="14">
         <v>50</v>
       </c>
-      <c r="G36" s="63" t="s">
+      <c r="G36" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="H36" s="50"/>
-      <c r="I36" s="50"/>
-      <c r="J36" s="50"/>
-      <c r="K36" s="50"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-    </row>
-    <row r="37" spans="1:13" ht="16.2">
-      <c r="A37" s="46" t="s">
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="42"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="54">
+        <v>30</v>
+      </c>
+      <c r="O36" s="54">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="B37" s="46" t="s">
+      <c r="B37" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="25" t="s">
+      <c r="C37" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="25" t="s">
+      <c r="D37" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E37" s="65">
+      <c r="E37" s="36">
         <v>5000000</v>
       </c>
-      <c r="F37" s="25">
+      <c r="F37" s="14">
         <v>50</v>
       </c>
-      <c r="G37" s="63" t="s">
+      <c r="G37" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="H37" s="50"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="50"/>
-      <c r="K37" s="50"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="11"/>
-    </row>
-    <row r="38" spans="1:13" ht="16.2">
-      <c r="A38" s="46" t="s">
+      <c r="H37" s="42"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="42"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="54">
+        <v>30</v>
+      </c>
+      <c r="O37" s="54">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="46" t="s">
+      <c r="B38" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="C38" s="25" t="s">
+      <c r="C38" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="25" t="s">
+      <c r="D38" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E38" s="65">
+      <c r="E38" s="36">
         <v>5000000</v>
       </c>
-      <c r="F38" s="25">
+      <c r="F38" s="14">
         <v>50</v>
       </c>
-      <c r="G38" s="63" t="s">
+      <c r="G38" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="H38" s="50"/>
-      <c r="I38" s="50"/>
-      <c r="J38" s="50"/>
-      <c r="K38" s="50"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
-    </row>
-    <row r="39" spans="1:13" ht="16.2">
-      <c r="A39" s="46" t="s">
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="42"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="54">
+        <v>30</v>
+      </c>
+      <c r="O38" s="54">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="B39" s="46" t="s">
+      <c r="B39" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="C39" s="25" t="s">
+      <c r="C39" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D39" s="25" t="s">
+      <c r="D39" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E39" s="65">
+      <c r="E39" s="36">
         <v>5000000</v>
       </c>
-      <c r="F39" s="25">
+      <c r="F39" s="14">
         <v>50</v>
       </c>
-      <c r="G39" s="63" t="s">
+      <c r="G39" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="H39" s="50"/>
-      <c r="I39" s="50"/>
-      <c r="J39" s="50"/>
-      <c r="K39" s="50"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="11"/>
-    </row>
-    <row r="40" spans="1:13" ht="16.2">
-      <c r="A40" s="46" t="s">
+      <c r="H39" s="42"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="42"/>
+      <c r="K39" s="42"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="54">
+        <v>30</v>
+      </c>
+      <c r="O39" s="54">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B40" s="46" t="s">
+      <c r="B40" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="C40" s="25" t="s">
+      <c r="C40" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="25" t="s">
+      <c r="D40" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E40" s="65">
+      <c r="E40" s="36">
         <v>5000000</v>
       </c>
-      <c r="F40" s="25">
+      <c r="F40" s="14">
         <v>50</v>
       </c>
-      <c r="G40" s="63" t="s">
+      <c r="G40" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="H40" s="50"/>
-      <c r="I40" s="50"/>
-      <c r="J40" s="50"/>
-      <c r="K40" s="50"/>
-      <c r="L40" s="11"/>
-      <c r="M40" s="11"/>
-    </row>
-    <row r="41" spans="1:13" ht="16.2">
-      <c r="A41" s="46" t="s">
+      <c r="H40" s="42"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="42"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="54">
+        <v>30</v>
+      </c>
+      <c r="O40" s="54">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="B41" s="46" t="s">
+      <c r="B41" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="25" t="s">
+      <c r="C41" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D41" s="25" t="s">
+      <c r="D41" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E41" s="65">
+      <c r="E41" s="36">
         <v>5000000</v>
       </c>
-      <c r="F41" s="25">
+      <c r="F41" s="14">
         <v>50</v>
       </c>
-      <c r="G41" s="63" t="s">
+      <c r="G41" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="H41" s="50"/>
-      <c r="I41" s="50"/>
-      <c r="J41" s="50"/>
-      <c r="K41" s="50"/>
-      <c r="L41" s="11"/>
-      <c r="M41" s="11"/>
-    </row>
-    <row r="42" spans="1:13" ht="16.2">
-      <c r="A42" s="46" t="s">
+      <c r="H41" s="42"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="42"/>
+      <c r="K41" s="42"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="54">
+        <v>30</v>
+      </c>
+      <c r="O41" s="54">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="B42" s="46" t="s">
+      <c r="B42" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="C42" s="25" t="s">
+      <c r="C42" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D42" s="25" t="s">
+      <c r="D42" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E42" s="65">
+      <c r="E42" s="36">
         <v>5000000</v>
       </c>
-      <c r="F42" s="25">
+      <c r="F42" s="14">
         <v>50</v>
       </c>
-      <c r="G42" s="63" t="s">
+      <c r="G42" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="H42" s="50"/>
-      <c r="I42" s="50"/>
-      <c r="J42" s="50"/>
-      <c r="K42" s="50"/>
-      <c r="L42" s="11"/>
-      <c r="M42" s="11"/>
-    </row>
-    <row r="43" spans="1:13" ht="16.2">
-      <c r="A43" s="46" t="s">
+      <c r="H42" s="42"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="42"/>
+      <c r="K42" s="42"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="54">
+        <v>30</v>
+      </c>
+      <c r="O42" s="54">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="B43" s="46" t="s">
+      <c r="B43" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="C43" s="25" t="s">
+      <c r="C43" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D43" s="25" t="s">
+      <c r="D43" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E43" s="65">
+      <c r="E43" s="36">
         <v>5000000</v>
       </c>
-      <c r="F43" s="25">
+      <c r="F43" s="14">
         <v>50</v>
       </c>
-      <c r="G43" s="63" t="s">
+      <c r="G43" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="H43" s="50"/>
-      <c r="I43" s="50"/>
-      <c r="J43" s="50"/>
-      <c r="K43" s="50"/>
-      <c r="L43" s="11"/>
-      <c r="M43" s="11"/>
-    </row>
-    <row r="44" spans="1:13" ht="16.2">
-      <c r="A44" s="46" t="s">
+      <c r="H43" s="42"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="42"/>
+      <c r="K43" s="42"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="54">
+        <v>30</v>
+      </c>
+      <c r="O43" s="54">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B44" s="46" t="s">
+      <c r="B44" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="C44" s="25" t="s">
+      <c r="C44" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D44" s="25" t="s">
+      <c r="D44" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E44" s="65">
+      <c r="E44" s="36">
         <v>5000000</v>
       </c>
-      <c r="F44" s="25">
+      <c r="F44" s="14">
         <v>50</v>
       </c>
-      <c r="G44" s="63" t="s">
+      <c r="G44" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="H44" s="50"/>
-      <c r="I44" s="50"/>
-      <c r="J44" s="50"/>
-      <c r="K44" s="50"/>
-      <c r="L44" s="11"/>
-      <c r="M44" s="11"/>
-    </row>
-    <row r="45" spans="1:13" ht="16.2">
-      <c r="A45" s="46" t="s">
+      <c r="H44" s="42"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="42"/>
+      <c r="K44" s="42"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="54">
+        <v>30</v>
+      </c>
+      <c r="O44" s="54">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="46" t="s">
+      <c r="B45" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="C45" s="25" t="s">
+      <c r="C45" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D45" s="25" t="s">
+      <c r="D45" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E45" s="65">
+      <c r="E45" s="36">
         <v>5000000</v>
       </c>
-      <c r="F45" s="25">
+      <c r="F45" s="14">
         <v>50</v>
       </c>
-      <c r="G45" s="63" t="s">
+      <c r="G45" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="H45" s="50"/>
-      <c r="I45" s="50"/>
-      <c r="J45" s="50"/>
-      <c r="K45" s="50"/>
-      <c r="L45" s="11"/>
-      <c r="M45" s="11"/>
-    </row>
-    <row r="46" spans="1:13" ht="16.2">
-      <c r="A46" s="46" t="s">
+      <c r="H45" s="42"/>
+      <c r="I45" s="42"/>
+      <c r="J45" s="42"/>
+      <c r="K45" s="42"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="54">
+        <v>30</v>
+      </c>
+      <c r="O45" s="54">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B46" s="46" t="s">
+      <c r="B46" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="C46" s="25" t="s">
+      <c r="C46" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D46" s="25" t="s">
+      <c r="D46" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E46" s="65">
+      <c r="E46" s="36">
         <v>5000000</v>
       </c>
-      <c r="F46" s="25">
+      <c r="F46" s="14">
         <v>50</v>
       </c>
-      <c r="G46" s="63" t="s">
+      <c r="G46" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="H46" s="50"/>
-      <c r="I46" s="50"/>
-      <c r="J46" s="50"/>
-      <c r="K46" s="50"/>
-      <c r="L46" s="11"/>
-      <c r="M46" s="11"/>
-    </row>
-    <row r="47" spans="1:13" ht="16.2">
-      <c r="A47" s="46" t="s">
+      <c r="H46" s="42"/>
+      <c r="I46" s="42"/>
+      <c r="J46" s="42"/>
+      <c r="K46" s="42"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="54">
+        <v>30</v>
+      </c>
+      <c r="O46" s="54">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B47" s="46" t="s">
+      <c r="B47" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="C47" s="25" t="s">
+      <c r="C47" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D47" s="25" t="s">
+      <c r="D47" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E47" s="65">
+      <c r="E47" s="36">
         <v>5000000</v>
       </c>
-      <c r="F47" s="25">
+      <c r="F47" s="14">
         <v>50</v>
       </c>
-      <c r="G47" s="63" t="s">
+      <c r="G47" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="H47" s="50"/>
-      <c r="I47" s="50"/>
-      <c r="J47" s="50"/>
-      <c r="K47" s="50"/>
-      <c r="L47" s="11"/>
-      <c r="M47" s="11"/>
-    </row>
-    <row r="48" spans="1:13" ht="16.2">
-      <c r="A48" s="46" t="s">
+      <c r="H47" s="42"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="42"/>
+      <c r="K47" s="42"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="54">
+        <v>30</v>
+      </c>
+      <c r="O47" s="54">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A48" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="B48" s="46" t="s">
+      <c r="B48" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="C48" s="25" t="s">
+      <c r="C48" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D48" s="25" t="s">
+      <c r="D48" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E48" s="65">
+      <c r="E48" s="36">
         <v>5000000</v>
       </c>
-      <c r="F48" s="25">
+      <c r="F48" s="14">
         <v>50</v>
       </c>
-      <c r="G48" s="63" t="s">
+      <c r="G48" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="H48" s="50"/>
-      <c r="I48" s="50"/>
-      <c r="J48" s="50"/>
-      <c r="K48" s="50"/>
-      <c r="L48" s="11"/>
-      <c r="M48" s="11"/>
-    </row>
-    <row r="49" spans="1:13" ht="16.2">
-      <c r="A49" s="46" t="s">
+      <c r="H48" s="42"/>
+      <c r="I48" s="42"/>
+      <c r="J48" s="42"/>
+      <c r="K48" s="42"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="54">
+        <v>30</v>
+      </c>
+      <c r="O48" s="54">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A49" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="B49" s="46" t="s">
+      <c r="B49" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="C49" s="25" t="s">
+      <c r="C49" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="25" t="s">
+      <c r="D49" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E49" s="65">
+      <c r="E49" s="36">
         <v>5000000</v>
       </c>
-      <c r="F49" s="25">
+      <c r="F49" s="14">
         <v>50</v>
       </c>
-      <c r="G49" s="63" t="s">
+      <c r="G49" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="H49" s="50"/>
-      <c r="I49" s="50"/>
-      <c r="J49" s="50"/>
-      <c r="K49" s="50"/>
-      <c r="L49" s="11"/>
-      <c r="M49" s="11"/>
-    </row>
-    <row r="50" spans="1:13" ht="16.2">
-      <c r="A50" s="46" t="s">
+      <c r="H49" s="42"/>
+      <c r="I49" s="42"/>
+      <c r="J49" s="42"/>
+      <c r="K49" s="42"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="54">
+        <v>30</v>
+      </c>
+      <c r="O49" s="54">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A50" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="B50" s="46" t="s">
+      <c r="B50" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="C50" s="25" t="s">
+      <c r="C50" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D50" s="25" t="s">
+      <c r="D50" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E50" s="65">
+      <c r="E50" s="36">
         <v>5000000</v>
       </c>
-      <c r="F50" s="25">
+      <c r="F50" s="14">
         <v>50</v>
       </c>
-      <c r="G50" s="63" t="s">
+      <c r="G50" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="H50" s="50"/>
-      <c r="I50" s="50"/>
-      <c r="J50" s="50"/>
-      <c r="K50" s="50"/>
-      <c r="L50" s="11"/>
-      <c r="M50" s="11"/>
-    </row>
-    <row r="51" spans="1:13" ht="16.2">
-      <c r="A51" s="46" t="s">
+      <c r="H50" s="42"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="42"/>
+      <c r="K50" s="42"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="54">
+        <v>30</v>
+      </c>
+      <c r="O50" s="54">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A51" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="B51" s="46" t="s">
+      <c r="B51" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="C51" s="25" t="s">
+      <c r="C51" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D51" s="25" t="s">
+      <c r="D51" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E51" s="65">
+      <c r="E51" s="36">
         <v>5000000</v>
       </c>
-      <c r="F51" s="25">
+      <c r="F51" s="14">
         <v>50</v>
       </c>
-      <c r="G51" s="63" t="s">
+      <c r="G51" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="H51" s="50"/>
-      <c r="I51" s="50"/>
-      <c r="J51" s="50"/>
-      <c r="K51" s="50"/>
-      <c r="L51" s="11"/>
-      <c r="M51" s="11"/>
-    </row>
-    <row r="52" spans="1:13" ht="16.2">
-      <c r="A52" s="46" t="s">
+      <c r="H51" s="42"/>
+      <c r="I51" s="42"/>
+      <c r="J51" s="42"/>
+      <c r="K51" s="42"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="54">
+        <v>30</v>
+      </c>
+      <c r="O51" s="54">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A52" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B52" s="46" t="s">
+      <c r="B52" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="C52" s="25" t="s">
+      <c r="C52" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D52" s="25" t="s">
+      <c r="D52" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E52" s="65">
+      <c r="E52" s="36">
         <v>5000000</v>
       </c>
-      <c r="F52" s="25">
+      <c r="F52" s="14">
         <v>50</v>
       </c>
-      <c r="G52" s="63" t="s">
+      <c r="G52" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="H52" s="50"/>
-      <c r="I52" s="50"/>
-      <c r="J52" s="50"/>
-      <c r="K52" s="50"/>
-      <c r="L52" s="11"/>
-      <c r="M52" s="11"/>
-    </row>
-    <row r="53" spans="1:13" ht="16.2">
-      <c r="A53" s="46" t="s">
+      <c r="H52" s="42"/>
+      <c r="I52" s="42"/>
+      <c r="J52" s="42"/>
+      <c r="K52" s="42"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="54">
+        <v>30</v>
+      </c>
+      <c r="O52" s="54">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A53" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="B53" s="46" t="s">
+      <c r="B53" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="C53" s="25" t="s">
+      <c r="C53" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D53" s="25" t="s">
+      <c r="D53" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E53" s="65">
+      <c r="E53" s="36">
         <v>5000000</v>
       </c>
-      <c r="F53" s="25">
+      <c r="F53" s="14">
         <v>50</v>
       </c>
-      <c r="G53" s="63" t="s">
+      <c r="G53" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="H53" s="50"/>
-      <c r="I53" s="50"/>
-      <c r="J53" s="50"/>
-      <c r="K53" s="50"/>
-      <c r="L53" s="11"/>
-      <c r="M53" s="11"/>
-    </row>
-    <row r="54" spans="1:13" ht="16.2">
-      <c r="A54" s="46" t="s">
+      <c r="H53" s="42"/>
+      <c r="I53" s="42"/>
+      <c r="J53" s="42"/>
+      <c r="K53" s="42"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="54">
+        <v>30</v>
+      </c>
+      <c r="O53" s="54">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A54" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="B54" s="46" t="s">
+      <c r="B54" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="C54" s="25" t="s">
+      <c r="C54" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D54" s="25" t="s">
+      <c r="D54" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E54" s="65">
+      <c r="E54" s="36">
         <v>5000000</v>
       </c>
-      <c r="F54" s="25">
+      <c r="F54" s="14">
         <v>50</v>
       </c>
-      <c r="G54" s="63" t="s">
+      <c r="G54" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="H54" s="50"/>
-      <c r="I54" s="50"/>
-      <c r="J54" s="50"/>
-      <c r="K54" s="50"/>
-      <c r="L54" s="11"/>
-      <c r="M54" s="11"/>
-    </row>
-    <row r="55" spans="1:13" ht="16.2">
-      <c r="A55" s="46" t="s">
+      <c r="H54" s="42"/>
+      <c r="I54" s="42"/>
+      <c r="J54" s="42"/>
+      <c r="K54" s="42"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="54">
+        <v>30</v>
+      </c>
+      <c r="O54" s="54">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A55" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="B55" s="46" t="s">
+      <c r="B55" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="C55" s="25" t="s">
+      <c r="C55" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D55" s="25" t="s">
+      <c r="D55" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E55" s="65">
+      <c r="E55" s="36">
         <v>5000000</v>
       </c>
-      <c r="F55" s="25">
+      <c r="F55" s="14">
         <v>50</v>
       </c>
-      <c r="G55" s="63" t="s">
+      <c r="G55" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="H55" s="50"/>
-      <c r="I55" s="50"/>
-      <c r="J55" s="50"/>
-      <c r="K55" s="50"/>
-      <c r="L55" s="11"/>
-      <c r="M55" s="11"/>
-    </row>
-    <row r="56" spans="1:13" ht="16.2">
-      <c r="A56" s="46" t="s">
+      <c r="H55" s="42"/>
+      <c r="I55" s="42"/>
+      <c r="J55" s="42"/>
+      <c r="K55" s="42"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="54">
+        <v>30</v>
+      </c>
+      <c r="O55" s="54">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A56" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="B56" s="46" t="s">
+      <c r="B56" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="C56" s="25" t="s">
+      <c r="C56" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D56" s="25" t="s">
+      <c r="D56" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E56" s="65">
+      <c r="E56" s="36">
         <v>5000000</v>
       </c>
-      <c r="F56" s="25">
+      <c r="F56" s="14">
         <v>50</v>
       </c>
-      <c r="G56" s="63" t="s">
+      <c r="G56" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="H56" s="50"/>
-      <c r="I56" s="50"/>
-      <c r="J56" s="50"/>
-      <c r="K56" s="50"/>
-      <c r="L56" s="11"/>
-      <c r="M56" s="11"/>
-    </row>
-    <row r="57" spans="1:13" ht="16.2">
-      <c r="A57" s="46" t="s">
+      <c r="H56" s="42"/>
+      <c r="I56" s="42"/>
+      <c r="J56" s="42"/>
+      <c r="K56" s="42"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="54">
+        <v>30</v>
+      </c>
+      <c r="O56" s="54">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A57" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="B57" s="46" t="s">
+      <c r="B57" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="C57" s="25" t="s">
+      <c r="C57" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D57" s="25" t="s">
+      <c r="D57" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E57" s="65">
+      <c r="E57" s="36">
         <v>5000000</v>
       </c>
-      <c r="F57" s="25">
+      <c r="F57" s="14">
         <v>50</v>
       </c>
-      <c r="G57" s="63" t="s">
+      <c r="G57" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="H57" s="50"/>
-      <c r="I57" s="50"/>
-      <c r="J57" s="50"/>
-      <c r="K57" s="50"/>
-      <c r="L57" s="11"/>
-      <c r="M57" s="11"/>
-    </row>
-    <row r="58" spans="1:13" ht="16.2">
-      <c r="A58" s="46" t="s">
+      <c r="H57" s="42"/>
+      <c r="I57" s="42"/>
+      <c r="J57" s="42"/>
+      <c r="K57" s="42"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="54">
+        <v>30</v>
+      </c>
+      <c r="O57" s="54">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A58" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B58" s="46" t="s">
+      <c r="B58" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="C58" s="25" t="s">
+      <c r="C58" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="25" t="s">
+      <c r="D58" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E58" s="65">
+      <c r="E58" s="36">
         <v>5000000</v>
       </c>
-      <c r="F58" s="25">
+      <c r="F58" s="8">
         <v>50</v>
       </c>
-      <c r="G58" s="63" t="s">
+      <c r="G58" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="H58" s="50"/>
-      <c r="I58" s="50"/>
-      <c r="J58" s="50"/>
-      <c r="K58" s="50"/>
-      <c r="L58" s="11"/>
-      <c r="M58" s="11"/>
-    </row>
-    <row r="59" spans="1:13" ht="16.2">
-      <c r="A59" s="6"/>
-      <c r="B59" s="46"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="50"/>
-      <c r="I59" s="50"/>
-      <c r="J59" s="50"/>
-      <c r="K59" s="50"/>
-      <c r="L59" s="11"/>
-      <c r="M59" s="11"/>
-    </row>
-    <row r="60" spans="1:13" ht="16.2">
-      <c r="A60" s="6"/>
-      <c r="B60" s="46"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="50"/>
-      <c r="I60" s="50"/>
-      <c r="J60" s="50"/>
-      <c r="K60" s="50"/>
-      <c r="L60" s="11"/>
-      <c r="M60" s="11"/>
-    </row>
-    <row r="61" spans="1:13" ht="16.2">
-      <c r="A61" s="6"/>
-      <c r="B61" s="46"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="50"/>
-      <c r="I61" s="50"/>
-      <c r="J61" s="50"/>
-      <c r="K61" s="50"/>
-      <c r="L61" s="11"/>
-      <c r="M61" s="11"/>
-    </row>
-    <row r="62" spans="1:13" ht="16.2">
-      <c r="A62" s="6"/>
-      <c r="B62" s="46"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="50"/>
-      <c r="I62" s="50"/>
-      <c r="J62" s="50"/>
-      <c r="K62" s="50"/>
-      <c r="L62" s="11"/>
-      <c r="M62" s="11"/>
-    </row>
-    <row r="63" spans="1:13" ht="16.2">
-      <c r="A63" s="6"/>
-      <c r="B63" s="46"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="12"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="50"/>
-      <c r="I63" s="50"/>
-      <c r="J63" s="50"/>
-      <c r="K63" s="50"/>
-      <c r="L63" s="11"/>
-      <c r="M63" s="11"/>
-    </row>
-    <row r="64" spans="1:13" ht="16.2">
-      <c r="A64" s="6"/>
-      <c r="B64" s="46"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="13"/>
-      <c r="F64" s="12"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="50"/>
-      <c r="I64" s="50"/>
-      <c r="J64" s="50"/>
-      <c r="K64" s="50"/>
-      <c r="L64" s="11"/>
-      <c r="M64" s="11"/>
-    </row>
-    <row r="65" spans="1:13" ht="16.2">
-      <c r="A65" s="22"/>
-      <c r="B65" s="46"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="12"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="50"/>
-      <c r="I65" s="50"/>
-      <c r="J65" s="50"/>
-      <c r="K65" s="50"/>
-      <c r="L65" s="11"/>
-      <c r="M65" s="11"/>
-    </row>
-    <row r="66" spans="1:13" ht="16.2">
-      <c r="A66" s="6"/>
-      <c r="B66" s="46"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="12"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="50"/>
-      <c r="I66" s="50"/>
-      <c r="J66" s="50"/>
-      <c r="K66" s="50"/>
-      <c r="L66" s="11"/>
-      <c r="M66" s="11"/>
-    </row>
-    <row r="67" spans="1:13" ht="16.2">
-      <c r="A67" s="6"/>
-      <c r="B67" s="46"/>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="13"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="50"/>
-      <c r="I67" s="50"/>
-      <c r="J67" s="50"/>
-      <c r="K67" s="50"/>
-      <c r="L67" s="11"/>
-      <c r="M67" s="11"/>
-    </row>
-    <row r="68" spans="1:13" ht="16.2">
-      <c r="A68" s="6"/>
-      <c r="B68" s="46"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="12"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="50"/>
-      <c r="I68" s="50"/>
-      <c r="J68" s="50"/>
-      <c r="K68" s="50"/>
-      <c r="L68" s="11"/>
-      <c r="M68" s="11"/>
-    </row>
-    <row r="69" spans="1:13" ht="16.2">
-      <c r="A69" s="6"/>
-      <c r="B69" s="46"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="13"/>
-      <c r="F69" s="12"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="50"/>
-      <c r="I69" s="50"/>
-      <c r="J69" s="50"/>
-      <c r="K69" s="50"/>
-      <c r="L69" s="11"/>
-      <c r="M69" s="11"/>
-    </row>
-    <row r="70" spans="1:13" ht="16.2">
-      <c r="A70" s="6"/>
-      <c r="B70" s="46"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="13"/>
-      <c r="F70" s="12"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="50"/>
-      <c r="I70" s="50"/>
-      <c r="J70" s="50"/>
-      <c r="K70" s="50"/>
-      <c r="L70" s="11"/>
-      <c r="M70" s="11"/>
-    </row>
-    <row r="71" spans="1:13" ht="16.2">
-      <c r="A71" s="6"/>
-      <c r="B71" s="46"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="13"/>
-      <c r="F71" s="12"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="50"/>
-      <c r="I71" s="50"/>
-      <c r="J71" s="50"/>
-      <c r="K71" s="50"/>
-      <c r="L71" s="11"/>
-      <c r="M71" s="11"/>
-    </row>
-    <row r="72" spans="1:13" ht="16.2">
-      <c r="A72" s="6"/>
-      <c r="B72" s="46"/>
-      <c r="C72" s="12"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="13"/>
-      <c r="F72" s="12"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="50"/>
-      <c r="I72" s="50"/>
-      <c r="J72" s="50"/>
-      <c r="K72" s="50"/>
-      <c r="L72" s="11"/>
-      <c r="M72" s="11"/>
-    </row>
-    <row r="73" spans="1:13" ht="16.2">
-      <c r="A73" s="6"/>
-      <c r="B73" s="46"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="13"/>
-      <c r="F73" s="12"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="50"/>
-      <c r="I73" s="50"/>
-      <c r="J73" s="50"/>
-      <c r="K73" s="50"/>
-      <c r="L73" s="11"/>
-      <c r="M73" s="11"/>
-    </row>
-    <row r="74" spans="1:13" ht="16.2">
-      <c r="A74" s="6"/>
-      <c r="B74" s="46"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="13"/>
-      <c r="F74" s="12"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="50"/>
-      <c r="I74" s="50"/>
-      <c r="J74" s="50"/>
-      <c r="K74" s="50"/>
-      <c r="L74" s="11"/>
-      <c r="M74" s="11"/>
-    </row>
-    <row r="75" spans="1:13" ht="16.2">
-      <c r="A75" s="6"/>
-      <c r="B75" s="46"/>
-      <c r="C75" s="12"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="13"/>
-      <c r="F75" s="12"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="50"/>
-      <c r="I75" s="50"/>
-      <c r="J75" s="50"/>
-      <c r="K75" s="50"/>
-      <c r="L75" s="11"/>
-      <c r="M75" s="11"/>
-    </row>
-    <row r="76" spans="1:13" ht="16.2">
-      <c r="A76" s="6"/>
-      <c r="B76" s="46"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="13"/>
-      <c r="F76" s="12"/>
-      <c r="G76" s="6"/>
-      <c r="H76" s="50"/>
-      <c r="I76" s="50"/>
-      <c r="J76" s="50"/>
-      <c r="K76" s="50"/>
-      <c r="L76" s="11"/>
-      <c r="M76" s="11"/>
-    </row>
-    <row r="77" spans="1:13" ht="16.2">
-      <c r="A77" s="6"/>
-      <c r="B77" s="46"/>
-      <c r="C77" s="12"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="13"/>
-      <c r="F77" s="12"/>
-      <c r="G77" s="6"/>
-      <c r="H77" s="50"/>
-      <c r="I77" s="50"/>
-      <c r="J77" s="50"/>
-      <c r="K77" s="50"/>
-      <c r="L77" s="14"/>
-      <c r="M77" s="14"/>
-    </row>
-    <row r="78" spans="1:13" ht="16.2">
-      <c r="A78" s="6"/>
-      <c r="B78" s="46"/>
-      <c r="C78" s="12"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="13"/>
-      <c r="F78" s="12"/>
-      <c r="G78" s="6"/>
-      <c r="H78" s="50"/>
-      <c r="I78" s="50"/>
-      <c r="J78" s="50"/>
-      <c r="K78" s="50"/>
-      <c r="L78" s="14"/>
-      <c r="M78" s="14"/>
-    </row>
-    <row r="79" spans="1:13" ht="16.2">
-      <c r="A79" s="6"/>
-      <c r="B79" s="46"/>
-      <c r="C79" s="12"/>
-      <c r="D79" s="12"/>
-      <c r="E79" s="13"/>
-      <c r="F79" s="12"/>
-      <c r="G79" s="6"/>
-      <c r="H79" s="50"/>
-      <c r="I79" s="50"/>
-      <c r="J79" s="50"/>
-      <c r="K79" s="50"/>
-      <c r="L79" s="14"/>
-      <c r="M79" s="14"/>
-    </row>
-    <row r="80" spans="1:13" ht="16.2">
-      <c r="A80" s="6"/>
-      <c r="B80" s="46"/>
-      <c r="C80" s="12"/>
-      <c r="D80" s="12"/>
-      <c r="E80" s="13"/>
-      <c r="F80" s="12"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="50"/>
-      <c r="I80" s="50"/>
-      <c r="J80" s="50"/>
-      <c r="K80" s="50"/>
-      <c r="L80" s="14"/>
-      <c r="M80" s="14"/>
-    </row>
-    <row r="81" spans="1:13" ht="16.2">
-      <c r="A81" s="6"/>
-      <c r="B81" s="46"/>
-      <c r="C81" s="12"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="13"/>
-      <c r="F81" s="12"/>
-      <c r="G81" s="6"/>
-      <c r="H81" s="50"/>
-      <c r="I81" s="50"/>
-      <c r="J81" s="50"/>
-      <c r="K81" s="50"/>
-      <c r="L81" s="14"/>
-      <c r="M81" s="14"/>
-    </row>
-    <row r="82" spans="1:13" ht="16.2">
-      <c r="A82" s="6"/>
-      <c r="B82" s="46"/>
-      <c r="C82" s="12"/>
-      <c r="D82" s="12"/>
-      <c r="E82" s="13"/>
-      <c r="F82" s="12"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="50"/>
-      <c r="I82" s="50"/>
-      <c r="J82" s="50"/>
-      <c r="K82" s="50"/>
-      <c r="L82" s="14"/>
-      <c r="M82" s="14"/>
-    </row>
-    <row r="83" spans="1:13" ht="16.2">
-      <c r="A83" s="6"/>
-      <c r="B83" s="46"/>
-      <c r="C83" s="12"/>
-      <c r="D83" s="12"/>
-      <c r="E83" s="13"/>
-      <c r="F83" s="12"/>
-      <c r="G83" s="6"/>
-      <c r="H83" s="50"/>
-      <c r="I83" s="50"/>
-      <c r="J83" s="50"/>
-      <c r="K83" s="50"/>
-      <c r="L83" s="14"/>
-      <c r="M83" s="14"/>
-    </row>
-    <row r="84" spans="1:13" ht="16.2">
-      <c r="A84" s="11"/>
-      <c r="B84" s="11"/>
-      <c r="C84" s="12"/>
-      <c r="D84" s="12"/>
-      <c r="E84" s="13"/>
-      <c r="F84" s="12"/>
-      <c r="G84" s="12"/>
-      <c r="H84" s="50"/>
-      <c r="I84" s="50"/>
-      <c r="J84" s="50"/>
-      <c r="K84" s="50"/>
-      <c r="L84" s="14"/>
-      <c r="M84" s="14"/>
-    </row>
-    <row r="85" spans="1:13" ht="16.2">
-      <c r="A85" s="11"/>
-      <c r="B85" s="11"/>
-      <c r="C85" s="12"/>
-      <c r="D85" s="12"/>
-      <c r="E85" s="13"/>
-      <c r="F85" s="12"/>
-      <c r="G85" s="12"/>
-      <c r="H85" s="50"/>
-      <c r="I85" s="50"/>
-      <c r="J85" s="50"/>
-      <c r="K85" s="50"/>
-      <c r="L85" s="14"/>
-      <c r="M85" s="14"/>
-    </row>
-    <row r="86" spans="1:13" ht="16.2">
-      <c r="A86" s="11"/>
-      <c r="B86" s="11"/>
-      <c r="C86" s="12"/>
-      <c r="D86" s="12"/>
-      <c r="E86" s="13"/>
-      <c r="F86" s="12"/>
-      <c r="G86" s="12"/>
-      <c r="H86" s="50"/>
-      <c r="I86" s="50"/>
-      <c r="J86" s="50"/>
-      <c r="K86" s="50"/>
-      <c r="L86" s="14"/>
-      <c r="M86" s="14"/>
-    </row>
-    <row r="87" spans="1:13" ht="16.2">
-      <c r="A87" s="11"/>
-      <c r="B87" s="11"/>
-      <c r="C87" s="12"/>
-      <c r="D87" s="12"/>
-      <c r="E87" s="13"/>
-      <c r="F87" s="12"/>
-      <c r="G87" s="12"/>
-      <c r="H87" s="50"/>
-      <c r="I87" s="50"/>
-      <c r="J87" s="50"/>
-      <c r="K87" s="50"/>
-      <c r="L87" s="14"/>
-      <c r="M87" s="14"/>
-    </row>
-    <row r="88" spans="1:13" ht="16.2">
-      <c r="A88" s="11"/>
-      <c r="B88" s="11"/>
-      <c r="C88" s="12"/>
-      <c r="D88" s="12"/>
-      <c r="E88" s="13"/>
-      <c r="F88" s="12"/>
-      <c r="G88" s="12"/>
-      <c r="H88" s="50"/>
-      <c r="I88" s="50"/>
-      <c r="J88" s="50"/>
-      <c r="K88" s="50"/>
-      <c r="L88" s="14"/>
-      <c r="M88" s="14"/>
-    </row>
-    <row r="89" spans="1:13" ht="16.2">
-      <c r="A89" s="11"/>
-      <c r="B89" s="11"/>
-      <c r="C89" s="12"/>
-      <c r="D89" s="12"/>
-      <c r="E89" s="13"/>
-      <c r="F89" s="12"/>
-      <c r="G89" s="12"/>
-      <c r="H89" s="50"/>
-      <c r="I89" s="50"/>
-      <c r="J89" s="50"/>
-      <c r="K89" s="50"/>
-      <c r="L89" s="14"/>
-      <c r="M89" s="14"/>
-    </row>
-    <row r="90" spans="1:13" ht="16.2">
-      <c r="A90" s="11"/>
-      <c r="B90" s="11"/>
-      <c r="C90" s="12"/>
-      <c r="D90" s="12"/>
-      <c r="E90" s="13"/>
-      <c r="F90" s="12"/>
-      <c r="G90" s="12"/>
-      <c r="H90" s="50"/>
-      <c r="I90" s="50"/>
-      <c r="J90" s="50"/>
-      <c r="K90" s="50"/>
-      <c r="L90" s="14"/>
-      <c r="M90" s="14"/>
-    </row>
-    <row r="91" spans="1:13" ht="16.2">
-      <c r="A91" s="11"/>
-      <c r="B91" s="11"/>
-      <c r="C91" s="12"/>
-      <c r="D91" s="12"/>
-      <c r="E91" s="13"/>
-      <c r="F91" s="12"/>
-      <c r="G91" s="12"/>
-      <c r="H91" s="50"/>
-      <c r="I91" s="50"/>
-      <c r="J91" s="50"/>
-      <c r="K91" s="50"/>
-      <c r="L91" s="14"/>
-      <c r="M91" s="14"/>
-    </row>
-    <row r="92" spans="1:13" ht="16.2">
-      <c r="A92" s="11"/>
-      <c r="B92" s="11"/>
-      <c r="C92" s="12"/>
-      <c r="D92" s="12"/>
-      <c r="E92" s="13"/>
-      <c r="F92" s="12"/>
-      <c r="G92" s="12"/>
-      <c r="H92" s="50"/>
-      <c r="I92" s="50"/>
-      <c r="J92" s="50"/>
-      <c r="K92" s="50"/>
-      <c r="L92" s="14"/>
-      <c r="M92" s="14"/>
-    </row>
-    <row r="93" spans="1:13" ht="16.2">
-      <c r="A93" s="11"/>
-      <c r="B93" s="11"/>
-      <c r="C93" s="12"/>
-      <c r="D93" s="12"/>
-      <c r="E93" s="13"/>
-      <c r="F93" s="12"/>
-      <c r="G93" s="12"/>
-      <c r="H93" s="50"/>
-      <c r="I93" s="50"/>
-      <c r="J93" s="50"/>
-      <c r="K93" s="50"/>
-      <c r="L93" s="14"/>
-      <c r="M93" s="14"/>
-    </row>
-    <row r="94" spans="1:13" ht="16.2">
-      <c r="A94" s="11"/>
-      <c r="B94" s="11"/>
-      <c r="C94" s="12"/>
-      <c r="D94" s="12"/>
-      <c r="E94" s="13"/>
-      <c r="F94" s="12"/>
-      <c r="G94" s="12"/>
-      <c r="H94" s="50"/>
-      <c r="I94" s="50"/>
-      <c r="J94" s="50"/>
-      <c r="K94" s="50"/>
-      <c r="L94" s="14"/>
-      <c r="M94" s="14"/>
-    </row>
-    <row r="95" spans="1:13" ht="16.2">
-      <c r="A95" s="11"/>
-      <c r="B95" s="11"/>
-      <c r="C95" s="12"/>
-      <c r="D95" s="12"/>
-      <c r="E95" s="13"/>
-      <c r="F95" s="12"/>
-      <c r="G95" s="12"/>
-      <c r="H95" s="50"/>
-      <c r="I95" s="50"/>
-      <c r="J95" s="50"/>
-      <c r="K95" s="50"/>
-      <c r="L95" s="14"/>
-      <c r="M95" s="14"/>
-    </row>
-    <row r="96" spans="1:13" ht="16.2">
-      <c r="A96" s="11"/>
-      <c r="B96" s="11"/>
-      <c r="C96" s="12"/>
-      <c r="D96" s="12"/>
-      <c r="E96" s="13"/>
-      <c r="F96" s="12"/>
-      <c r="G96" s="12"/>
-      <c r="H96" s="50"/>
-      <c r="I96" s="50"/>
-      <c r="J96" s="50"/>
-      <c r="K96" s="50"/>
-      <c r="L96" s="14"/>
-      <c r="M96" s="14"/>
-    </row>
-    <row r="97" spans="1:13" ht="16.2">
-      <c r="A97" s="11"/>
-      <c r="B97" s="11"/>
-      <c r="C97" s="12"/>
-      <c r="D97" s="12"/>
-      <c r="E97" s="13"/>
-      <c r="F97" s="12"/>
-      <c r="G97" s="12"/>
-      <c r="H97" s="50"/>
-      <c r="I97" s="50"/>
-      <c r="J97" s="50"/>
-      <c r="K97" s="50"/>
-      <c r="L97" s="14"/>
-      <c r="M97" s="14"/>
-    </row>
-    <row r="98" spans="1:13" ht="16.2">
-      <c r="A98" s="11"/>
-      <c r="B98" s="11"/>
-      <c r="C98" s="12"/>
-      <c r="D98" s="12"/>
-      <c r="E98" s="13"/>
-      <c r="F98" s="12"/>
-      <c r="G98" s="12"/>
-      <c r="H98" s="50"/>
-      <c r="I98" s="50"/>
-      <c r="J98" s="50"/>
-      <c r="K98" s="50"/>
-      <c r="L98" s="14"/>
-      <c r="M98" s="14"/>
-    </row>
-    <row r="99" spans="1:13" ht="16.2">
-      <c r="A99" s="11"/>
-      <c r="B99" s="11"/>
-      <c r="C99" s="12"/>
-      <c r="D99" s="12"/>
-      <c r="E99" s="13"/>
-      <c r="F99" s="12"/>
-      <c r="G99" s="12"/>
-      <c r="H99" s="50"/>
-      <c r="I99" s="50"/>
-      <c r="J99" s="50"/>
-      <c r="K99" s="50"/>
-      <c r="L99" s="14"/>
-      <c r="M99" s="14"/>
-    </row>
-    <row r="100" spans="1:13" ht="16.2">
-      <c r="A100" s="11"/>
-      <c r="B100" s="11"/>
-      <c r="C100" s="12"/>
-      <c r="D100" s="12"/>
-      <c r="E100" s="13"/>
-      <c r="F100" s="12"/>
-      <c r="G100" s="12"/>
-      <c r="H100" s="50"/>
-      <c r="I100" s="50"/>
-      <c r="J100" s="50"/>
-      <c r="K100" s="50"/>
-      <c r="L100" s="14"/>
-      <c r="M100" s="14"/>
-    </row>
-    <row r="101" spans="1:13" ht="16.2">
-      <c r="A101" s="11"/>
-      <c r="B101" s="11"/>
-      <c r="C101" s="12"/>
-      <c r="D101" s="12"/>
-      <c r="E101" s="13"/>
-      <c r="F101" s="12"/>
-      <c r="G101" s="12"/>
-      <c r="H101" s="50"/>
-      <c r="I101" s="50"/>
-      <c r="J101" s="50"/>
-      <c r="K101" s="50"/>
-      <c r="L101" s="14"/>
-      <c r="M101" s="14"/>
-    </row>
-    <row r="102" spans="1:13" ht="16.2">
-      <c r="A102" s="11"/>
-      <c r="B102" s="11"/>
-      <c r="C102" s="12"/>
-      <c r="D102" s="12"/>
-      <c r="E102" s="13"/>
-      <c r="F102" s="12"/>
-      <c r="G102" s="12"/>
-      <c r="H102" s="50"/>
-      <c r="I102" s="50"/>
-      <c r="J102" s="50"/>
-      <c r="K102" s="50"/>
-      <c r="L102" s="14"/>
-      <c r="M102" s="14"/>
-    </row>
-    <row r="103" spans="1:13" ht="16.2">
-      <c r="A103" s="11"/>
-      <c r="B103" s="11"/>
-      <c r="C103" s="12"/>
-      <c r="D103" s="12"/>
-      <c r="E103" s="13"/>
-      <c r="F103" s="12"/>
-      <c r="G103" s="12"/>
-      <c r="H103" s="50"/>
-      <c r="I103" s="50"/>
-      <c r="J103" s="50"/>
-      <c r="K103" s="50"/>
-      <c r="L103" s="14"/>
-      <c r="M103" s="14"/>
-    </row>
-    <row r="104" spans="1:13" ht="16.2">
-      <c r="A104" s="11"/>
-      <c r="B104" s="11"/>
-      <c r="C104" s="12"/>
-      <c r="D104" s="12"/>
-      <c r="E104" s="13"/>
-      <c r="F104" s="12"/>
-      <c r="G104" s="12"/>
-      <c r="H104" s="50"/>
-      <c r="I104" s="50"/>
-      <c r="J104" s="50"/>
-      <c r="K104" s="50"/>
-      <c r="L104" s="14"/>
-      <c r="M104" s="14"/>
-    </row>
-    <row r="105" spans="1:13" ht="16.2">
-      <c r="A105" s="11"/>
-      <c r="B105" s="11"/>
-      <c r="C105" s="12"/>
-      <c r="D105" s="12"/>
-      <c r="E105" s="13"/>
-      <c r="F105" s="12"/>
-      <c r="G105" s="12"/>
-      <c r="H105" s="50"/>
-      <c r="I105" s="50"/>
-      <c r="J105" s="50"/>
-      <c r="K105" s="50"/>
-      <c r="L105" s="14"/>
-      <c r="M105" s="14"/>
-    </row>
-    <row r="106" spans="1:13" ht="16.2">
-      <c r="A106" s="11"/>
-      <c r="B106" s="11"/>
-      <c r="C106" s="12"/>
-      <c r="D106" s="12"/>
-      <c r="E106" s="13"/>
-      <c r="F106" s="12"/>
-      <c r="G106" s="12"/>
-      <c r="H106" s="50"/>
-      <c r="I106" s="50"/>
-      <c r="J106" s="50"/>
-      <c r="K106" s="50"/>
-      <c r="L106" s="14"/>
-      <c r="M106" s="14"/>
-    </row>
-    <row r="107" spans="1:13" ht="16.2">
-      <c r="A107" s="11"/>
-      <c r="B107" s="11"/>
-      <c r="C107" s="12"/>
-      <c r="D107" s="12"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="12"/>
-      <c r="G107" s="12"/>
-      <c r="H107" s="50"/>
-      <c r="I107" s="50"/>
-      <c r="J107" s="50"/>
-      <c r="K107" s="50"/>
-      <c r="L107" s="14"/>
-      <c r="M107" s="14"/>
-    </row>
-    <row r="108" spans="1:13" ht="16.2">
-      <c r="A108" s="11"/>
-      <c r="B108" s="11"/>
-      <c r="C108" s="12"/>
-      <c r="D108" s="12"/>
-      <c r="E108" s="13"/>
-      <c r="F108" s="12"/>
-      <c r="G108" s="12"/>
-      <c r="H108" s="50"/>
-      <c r="I108" s="50"/>
-      <c r="J108" s="50"/>
-      <c r="K108" s="50"/>
-      <c r="L108" s="14"/>
-      <c r="M108" s="14"/>
-    </row>
-    <row r="109" spans="1:13" ht="16.2">
-      <c r="A109" s="11"/>
-      <c r="B109" s="11"/>
-      <c r="C109" s="12"/>
-      <c r="D109" s="12"/>
-      <c r="E109" s="13"/>
-      <c r="F109" s="12"/>
-      <c r="G109" s="12"/>
-      <c r="H109" s="50"/>
-      <c r="I109" s="50"/>
-      <c r="J109" s="50"/>
-      <c r="K109" s="50"/>
-      <c r="L109" s="14"/>
-      <c r="M109" s="14"/>
-    </row>
-    <row r="110" spans="1:13" ht="16.2">
-      <c r="A110" s="11"/>
-      <c r="B110" s="11"/>
-      <c r="C110" s="12"/>
-      <c r="D110" s="12"/>
-      <c r="E110" s="13"/>
-      <c r="F110" s="12"/>
-      <c r="G110" s="12"/>
-      <c r="H110" s="50"/>
-      <c r="I110" s="50"/>
-      <c r="J110" s="50"/>
-      <c r="K110" s="50"/>
-      <c r="L110" s="14"/>
-      <c r="M110" s="14"/>
-    </row>
-    <row r="111" spans="1:13" ht="16.2">
-      <c r="A111" s="11"/>
-      <c r="B111" s="11"/>
-      <c r="C111" s="12"/>
-      <c r="D111" s="12"/>
-      <c r="E111" s="13"/>
-      <c r="F111" s="12"/>
-      <c r="G111" s="12"/>
-      <c r="H111" s="50"/>
-      <c r="I111" s="50"/>
-      <c r="J111" s="50"/>
-      <c r="K111" s="50"/>
-      <c r="L111" s="14"/>
-      <c r="M111" s="14"/>
-    </row>
-    <row r="112" spans="1:13" ht="16.2">
-      <c r="A112" s="11"/>
-      <c r="B112" s="11"/>
-      <c r="C112" s="12"/>
-      <c r="D112" s="12"/>
-      <c r="E112" s="13"/>
-      <c r="F112" s="12"/>
-      <c r="G112" s="12"/>
-      <c r="H112" s="50"/>
-      <c r="I112" s="50"/>
-      <c r="J112" s="50"/>
-      <c r="K112" s="50"/>
-      <c r="L112" s="14"/>
-      <c r="M112" s="14"/>
-    </row>
-    <row r="113" spans="1:13" ht="16.2">
-      <c r="A113" s="11"/>
-      <c r="B113" s="11"/>
-      <c r="C113" s="12"/>
-      <c r="D113" s="12"/>
-      <c r="E113" s="13"/>
-      <c r="F113" s="12"/>
-      <c r="G113" s="12"/>
-      <c r="H113" s="50"/>
-      <c r="I113" s="50"/>
-      <c r="J113" s="50"/>
-      <c r="K113" s="50"/>
-      <c r="L113" s="14"/>
-      <c r="M113" s="14"/>
-    </row>
-    <row r="114" spans="1:13" ht="16.2">
-      <c r="A114" s="11"/>
-      <c r="B114" s="11"/>
-      <c r="C114" s="12"/>
-      <c r="D114" s="12"/>
-      <c r="E114" s="13"/>
-      <c r="F114" s="12"/>
-      <c r="G114" s="12"/>
-      <c r="H114" s="50"/>
-      <c r="I114" s="50"/>
-      <c r="J114" s="50"/>
-      <c r="K114" s="50"/>
-      <c r="L114" s="14"/>
-      <c r="M114" s="14"/>
-    </row>
-    <row r="115" spans="1:13" ht="16.2">
-      <c r="A115" s="11"/>
-      <c r="B115" s="11"/>
-      <c r="C115" s="12"/>
-      <c r="D115" s="12"/>
-      <c r="E115" s="13"/>
-      <c r="F115" s="12"/>
-      <c r="G115" s="12"/>
-      <c r="H115" s="50"/>
-      <c r="I115" s="50"/>
-      <c r="J115" s="50"/>
-      <c r="K115" s="50"/>
-      <c r="L115" s="14"/>
-      <c r="M115" s="14"/>
-    </row>
-    <row r="116" spans="1:13" ht="16.2">
-      <c r="A116" s="11"/>
-      <c r="B116" s="11"/>
-      <c r="C116" s="12"/>
-      <c r="D116" s="12"/>
-      <c r="E116" s="13"/>
-      <c r="F116" s="12"/>
-      <c r="G116" s="12"/>
-      <c r="H116" s="50"/>
-      <c r="I116" s="50"/>
-      <c r="J116" s="50"/>
-      <c r="K116" s="50"/>
-      <c r="L116" s="14"/>
-      <c r="M116" s="14"/>
-    </row>
-    <row r="117" spans="1:13" ht="16.2">
-      <c r="A117" s="11"/>
-      <c r="B117" s="11"/>
-      <c r="C117" s="12"/>
-      <c r="D117" s="12"/>
-      <c r="E117" s="13"/>
-      <c r="F117" s="12"/>
-      <c r="G117" s="12"/>
-      <c r="H117" s="50"/>
-      <c r="I117" s="50"/>
-      <c r="J117" s="50"/>
-      <c r="K117" s="50"/>
-      <c r="L117" s="11"/>
-      <c r="M117" s="11"/>
-    </row>
-    <row r="118" spans="1:13" ht="16.2">
-      <c r="A118" s="11"/>
-      <c r="B118" s="11"/>
-      <c r="C118" s="12"/>
-      <c r="D118" s="12"/>
-      <c r="E118" s="13"/>
-      <c r="F118" s="12"/>
-      <c r="G118" s="12"/>
-      <c r="H118" s="50"/>
-      <c r="I118" s="50"/>
-      <c r="J118" s="50"/>
-      <c r="K118" s="50"/>
-      <c r="L118" s="11"/>
-      <c r="M118" s="11"/>
-    </row>
-    <row r="119" spans="1:13" ht="16.2">
-      <c r="A119" s="11"/>
-      <c r="B119" s="11"/>
-      <c r="C119" s="12"/>
-      <c r="D119" s="12"/>
-      <c r="E119" s="13"/>
-      <c r="F119" s="12"/>
-      <c r="G119" s="12"/>
-      <c r="H119" s="50"/>
-      <c r="I119" s="50"/>
-      <c r="J119" s="50"/>
-      <c r="K119" s="50"/>
-      <c r="L119" s="11"/>
-      <c r="M119" s="11"/>
-    </row>
-    <row r="120" spans="1:13" ht="16.2">
-      <c r="A120" s="11"/>
-      <c r="B120" s="11"/>
-      <c r="C120" s="12"/>
-      <c r="D120" s="12"/>
-      <c r="E120" s="13"/>
-      <c r="F120" s="12"/>
-      <c r="G120" s="12"/>
-      <c r="H120" s="50"/>
-      <c r="I120" s="50"/>
-      <c r="J120" s="50"/>
-      <c r="K120" s="50"/>
-      <c r="L120" s="11"/>
-      <c r="M120" s="11"/>
-    </row>
-    <row r="121" spans="1:13" ht="15">
-      <c r="A121" s="6"/>
-      <c r="B121" s="46"/>
-      <c r="C121" s="6"/>
-      <c r="D121" s="3"/>
-      <c r="E121" s="3"/>
-      <c r="F121" s="3"/>
-      <c r="G121" s="4"/>
-      <c r="H121" s="57"/>
-      <c r="I121" s="57"/>
-      <c r="J121" s="57"/>
-      <c r="K121" s="57"/>
-      <c r="L121" s="6"/>
-      <c r="M121" s="6"/>
-    </row>
-    <row r="122" spans="1:13" ht="15">
-      <c r="A122" s="6"/>
-      <c r="B122" s="46"/>
-      <c r="C122" s="6"/>
-      <c r="D122" s="3"/>
-      <c r="E122" s="3"/>
-      <c r="F122" s="3"/>
-      <c r="G122" s="4"/>
-      <c r="H122" s="57"/>
-      <c r="I122" s="57"/>
-      <c r="J122" s="57"/>
-      <c r="K122" s="57"/>
-      <c r="L122" s="6"/>
-      <c r="M122" s="6"/>
-    </row>
-    <row r="123" spans="1:13" ht="15">
-      <c r="A123" s="6"/>
-      <c r="B123" s="46"/>
-      <c r="C123" s="6"/>
-      <c r="D123" s="3"/>
-      <c r="E123" s="3"/>
-      <c r="F123" s="3"/>
-      <c r="G123" s="4"/>
-      <c r="H123" s="57"/>
-      <c r="I123" s="57"/>
-      <c r="J123" s="57"/>
-      <c r="K123" s="57"/>
-      <c r="L123" s="6"/>
-      <c r="M123" s="6"/>
-    </row>
-    <row r="124" spans="1:13" ht="15">
-      <c r="A124" s="6"/>
-      <c r="B124" s="46"/>
-      <c r="C124" s="6"/>
-      <c r="D124" s="3"/>
-      <c r="E124" s="3"/>
-      <c r="F124" s="3"/>
-      <c r="G124" s="4"/>
-      <c r="H124" s="57"/>
-      <c r="I124" s="57"/>
-      <c r="J124" s="57"/>
-      <c r="K124" s="57"/>
-      <c r="L124" s="6"/>
-      <c r="M124" s="6"/>
-    </row>
-    <row r="125" spans="1:13" ht="15">
-      <c r="A125" s="6"/>
-      <c r="B125" s="46"/>
-      <c r="C125" s="6"/>
-      <c r="D125" s="3"/>
-      <c r="E125" s="3"/>
-      <c r="F125" s="3"/>
-      <c r="G125" s="4"/>
-      <c r="H125" s="57"/>
-      <c r="I125" s="57"/>
-      <c r="J125" s="57"/>
-      <c r="K125" s="57"/>
-      <c r="L125" s="6"/>
-      <c r="M125" s="6"/>
-    </row>
-    <row r="126" spans="1:13" ht="15">
-      <c r="A126" s="6"/>
-      <c r="B126" s="46"/>
-      <c r="C126" s="6"/>
-      <c r="D126" s="3"/>
-      <c r="E126" s="3"/>
-      <c r="F126" s="3"/>
-      <c r="G126" s="4"/>
-      <c r="H126" s="57"/>
-      <c r="I126" s="57"/>
-      <c r="J126" s="57"/>
-      <c r="K126" s="57"/>
-      <c r="L126" s="6"/>
-      <c r="M126" s="6"/>
-    </row>
-    <row r="127" spans="1:13" ht="15">
-      <c r="A127" s="6"/>
-      <c r="B127" s="46"/>
-      <c r="C127" s="6"/>
-      <c r="D127" s="3"/>
-      <c r="E127" s="3"/>
-      <c r="F127" s="3"/>
-      <c r="G127" s="4"/>
-      <c r="H127" s="57"/>
-      <c r="I127" s="57"/>
-      <c r="J127" s="57"/>
-      <c r="K127" s="57"/>
-      <c r="L127" s="6"/>
-      <c r="M127" s="6"/>
-    </row>
-    <row r="128" spans="1:13" ht="15">
-      <c r="A128" s="6"/>
-      <c r="B128" s="46"/>
-      <c r="C128" s="6"/>
-      <c r="D128" s="3"/>
-      <c r="E128" s="3"/>
-      <c r="F128" s="3"/>
-      <c r="G128" s="4"/>
-      <c r="H128" s="57"/>
-      <c r="I128" s="57"/>
-      <c r="J128" s="57"/>
-      <c r="K128" s="57"/>
-      <c r="L128" s="6"/>
-      <c r="M128" s="6"/>
-    </row>
-    <row r="129" spans="1:13" ht="15">
-      <c r="A129" s="6"/>
-      <c r="B129" s="46"/>
-      <c r="C129" s="6"/>
-      <c r="D129" s="3"/>
-      <c r="E129" s="3"/>
-      <c r="F129" s="3"/>
-      <c r="G129" s="4"/>
-      <c r="H129" s="57"/>
-      <c r="I129" s="57"/>
-      <c r="J129" s="57"/>
-      <c r="K129" s="57"/>
-      <c r="L129" s="6"/>
-      <c r="M129" s="6"/>
-    </row>
-    <row r="130" spans="1:13" ht="15">
-      <c r="A130" s="6"/>
-      <c r="B130" s="46"/>
-      <c r="C130" s="6"/>
-      <c r="D130" s="3"/>
-      <c r="E130" s="3"/>
-      <c r="F130" s="3"/>
-      <c r="G130" s="4"/>
-      <c r="H130" s="57"/>
-      <c r="I130" s="57"/>
-      <c r="J130" s="57"/>
-      <c r="K130" s="57"/>
-      <c r="L130" s="6"/>
-      <c r="M130" s="6"/>
-    </row>
-    <row r="131" spans="1:13" ht="15">
-      <c r="A131" s="6"/>
-      <c r="B131" s="46"/>
-      <c r="C131" s="6"/>
-      <c r="D131" s="3"/>
-      <c r="E131" s="3"/>
-      <c r="F131" s="3"/>
-      <c r="G131" s="4"/>
-      <c r="H131" s="57"/>
-      <c r="I131" s="57"/>
-      <c r="J131" s="57"/>
-      <c r="K131" s="57"/>
-      <c r="L131" s="6"/>
-      <c r="M131" s="6"/>
-    </row>
-    <row r="132" spans="1:13" ht="15">
-      <c r="A132" s="6"/>
-      <c r="B132" s="46"/>
-      <c r="C132" s="6"/>
-      <c r="D132" s="3"/>
-      <c r="E132" s="3"/>
-      <c r="F132" s="3"/>
-      <c r="G132" s="4"/>
-      <c r="H132" s="57"/>
-      <c r="I132" s="57"/>
-      <c r="J132" s="57"/>
-      <c r="K132" s="57"/>
-      <c r="L132" s="6"/>
-      <c r="M132" s="6"/>
-    </row>
-    <row r="133" spans="1:13" ht="15">
-      <c r="A133" s="6"/>
-      <c r="B133" s="46"/>
-      <c r="C133" s="6"/>
-      <c r="D133" s="3"/>
-      <c r="E133" s="3"/>
-      <c r="F133" s="3"/>
-      <c r="G133" s="4"/>
-      <c r="H133" s="57"/>
-      <c r="I133" s="57"/>
-      <c r="J133" s="57"/>
-      <c r="K133" s="57"/>
-      <c r="L133" s="6"/>
-      <c r="M133" s="6"/>
-    </row>
-    <row r="134" spans="1:13" ht="15">
-      <c r="A134" s="6"/>
-      <c r="B134" s="46"/>
-      <c r="C134" s="6"/>
-      <c r="D134" s="3"/>
-      <c r="E134" s="3"/>
-      <c r="F134" s="3"/>
-      <c r="G134" s="4"/>
-      <c r="H134" s="57"/>
-      <c r="I134" s="57"/>
-      <c r="J134" s="57"/>
-      <c r="K134" s="57"/>
-      <c r="L134" s="6"/>
-      <c r="M134" s="6"/>
-    </row>
-    <row r="135" spans="1:13" ht="15">
-      <c r="A135" s="6"/>
-      <c r="B135" s="46"/>
-      <c r="C135" s="6"/>
-      <c r="D135" s="3"/>
-      <c r="E135" s="3"/>
-      <c r="F135" s="3"/>
-      <c r="G135" s="4"/>
-      <c r="H135" s="57"/>
-      <c r="I135" s="57"/>
-      <c r="J135" s="57"/>
-      <c r="K135" s="57"/>
-      <c r="L135" s="6"/>
-      <c r="M135" s="6"/>
-    </row>
-    <row r="136" spans="1:13" ht="15">
-      <c r="A136" s="6"/>
-      <c r="B136" s="46"/>
-      <c r="C136" s="6"/>
-      <c r="D136" s="3"/>
-      <c r="E136" s="3"/>
-      <c r="F136" s="3"/>
-      <c r="G136" s="4"/>
-      <c r="H136" s="57"/>
-      <c r="I136" s="57"/>
-      <c r="J136" s="57"/>
-      <c r="K136" s="57"/>
-      <c r="L136" s="6"/>
-      <c r="M136" s="6"/>
-    </row>
-    <row r="137" spans="1:13" ht="15">
-      <c r="A137" s="6"/>
-      <c r="B137" s="46"/>
-      <c r="C137" s="6"/>
-      <c r="D137" s="3"/>
-      <c r="E137" s="3"/>
-      <c r="F137" s="3"/>
-      <c r="G137" s="4"/>
-      <c r="H137" s="57"/>
-      <c r="I137" s="57"/>
-      <c r="J137" s="57"/>
-      <c r="K137" s="57"/>
-      <c r="L137" s="6"/>
-      <c r="M137" s="6"/>
-    </row>
-    <row r="138" spans="1:13" ht="15">
-      <c r="A138" s="6"/>
-      <c r="B138" s="46"/>
-      <c r="C138" s="6"/>
-      <c r="D138" s="3"/>
-      <c r="E138" s="3"/>
-      <c r="F138" s="3"/>
-      <c r="G138" s="4"/>
-      <c r="H138" s="57"/>
-      <c r="I138" s="57"/>
-      <c r="J138" s="57"/>
-      <c r="K138" s="57"/>
-      <c r="L138" s="6"/>
-      <c r="M138" s="6"/>
-    </row>
-    <row r="139" spans="1:13" ht="15">
-      <c r="A139" s="6"/>
-      <c r="B139" s="46"/>
-      <c r="C139" s="6"/>
-      <c r="D139" s="3"/>
-      <c r="E139" s="3"/>
-      <c r="F139" s="3"/>
-      <c r="G139" s="4"/>
-      <c r="H139" s="57"/>
-      <c r="I139" s="57"/>
-      <c r="J139" s="57"/>
-      <c r="K139" s="57"/>
-      <c r="L139" s="6"/>
-      <c r="M139" s="6"/>
-    </row>
-    <row r="140" spans="1:13" ht="15">
-      <c r="A140" s="6"/>
-      <c r="B140" s="46"/>
-      <c r="C140" s="6"/>
-      <c r="D140" s="3"/>
-      <c r="E140" s="3"/>
-      <c r="F140" s="3"/>
-      <c r="G140" s="4"/>
-      <c r="H140" s="57"/>
-      <c r="I140" s="57"/>
-      <c r="J140" s="57"/>
-      <c r="K140" s="57"/>
-      <c r="L140" s="6"/>
-      <c r="M140" s="6"/>
-    </row>
-    <row r="141" spans="1:13" ht="15">
-      <c r="A141" s="6"/>
-      <c r="B141" s="46"/>
-      <c r="C141" s="6"/>
-      <c r="D141" s="3"/>
-      <c r="E141" s="3"/>
-      <c r="F141" s="3"/>
-      <c r="G141" s="4"/>
-      <c r="H141" s="57"/>
-      <c r="I141" s="57"/>
-      <c r="J141" s="57"/>
-      <c r="K141" s="57"/>
-      <c r="L141" s="6"/>
-      <c r="M141" s="6"/>
-    </row>
-    <row r="142" spans="1:13" ht="15">
-      <c r="A142" s="6"/>
-      <c r="B142" s="46"/>
-      <c r="C142" s="6"/>
-      <c r="D142" s="3"/>
-      <c r="E142" s="3"/>
-      <c r="F142" s="3"/>
-      <c r="G142" s="4"/>
-      <c r="H142" s="57"/>
-      <c r="I142" s="57"/>
-      <c r="J142" s="57"/>
-      <c r="K142" s="57"/>
-      <c r="L142" s="6"/>
-      <c r="M142" s="6"/>
-    </row>
-    <row r="143" spans="1:13" ht="15">
-      <c r="A143" s="6"/>
-      <c r="B143" s="46"/>
-      <c r="C143" s="6"/>
-      <c r="D143" s="3"/>
-      <c r="E143" s="3"/>
-      <c r="F143" s="3"/>
-      <c r="G143" s="4"/>
-      <c r="H143" s="57"/>
-      <c r="I143" s="57"/>
-      <c r="J143" s="57"/>
-      <c r="K143" s="57"/>
-      <c r="L143" s="6"/>
-      <c r="M143" s="6"/>
-    </row>
-    <row r="144" spans="1:13" ht="15">
-      <c r="A144" s="6"/>
-      <c r="B144" s="46"/>
-      <c r="C144" s="6"/>
-      <c r="D144" s="3"/>
-      <c r="E144" s="3"/>
-      <c r="F144" s="3"/>
-      <c r="G144" s="4"/>
-      <c r="H144" s="57"/>
-      <c r="I144" s="57"/>
-      <c r="J144" s="57"/>
-      <c r="K144" s="57"/>
-      <c r="L144" s="6"/>
-      <c r="M144" s="6"/>
-    </row>
-    <row r="145" spans="1:13" ht="15">
-      <c r="A145" s="6"/>
-      <c r="B145" s="46"/>
-      <c r="C145" s="6"/>
-      <c r="D145" s="3"/>
-      <c r="E145" s="3"/>
-      <c r="F145" s="3"/>
-      <c r="G145" s="4"/>
-      <c r="H145" s="57"/>
-      <c r="I145" s="57"/>
-      <c r="J145" s="57"/>
-      <c r="K145" s="57"/>
-      <c r="L145" s="6"/>
-      <c r="M145" s="6"/>
-    </row>
-    <row r="146" spans="1:13" ht="15">
-      <c r="A146" s="6"/>
-      <c r="B146" s="46"/>
-      <c r="C146" s="6"/>
-      <c r="D146" s="3"/>
-      <c r="E146" s="3"/>
-      <c r="F146" s="3"/>
-      <c r="G146" s="4"/>
-      <c r="H146" s="57"/>
-      <c r="I146" s="57"/>
-      <c r="J146" s="57"/>
-      <c r="K146" s="57"/>
-      <c r="L146" s="6"/>
-      <c r="M146" s="6"/>
-    </row>
-    <row r="147" spans="1:13" ht="15">
-      <c r="A147" s="6"/>
-      <c r="B147" s="46"/>
-      <c r="C147" s="6"/>
-      <c r="D147" s="3"/>
-      <c r="E147" s="3"/>
-      <c r="F147" s="3"/>
-      <c r="G147" s="4"/>
-      <c r="H147" s="57"/>
-      <c r="I147" s="57"/>
-      <c r="J147" s="57"/>
-      <c r="K147" s="57"/>
-      <c r="L147" s="6"/>
-      <c r="M147" s="6"/>
-    </row>
-    <row r="148" spans="1:13" ht="15">
-      <c r="A148" s="6"/>
-      <c r="B148" s="46"/>
-      <c r="C148" s="6"/>
-      <c r="D148" s="3"/>
-      <c r="E148" s="3"/>
-      <c r="F148" s="3"/>
-      <c r="G148" s="4"/>
-      <c r="H148" s="57"/>
-      <c r="I148" s="57"/>
-      <c r="J148" s="57"/>
-      <c r="K148" s="57"/>
-      <c r="L148" s="6"/>
-      <c r="M148" s="6"/>
-    </row>
-    <row r="149" spans="1:13" ht="15">
-      <c r="A149" s="6"/>
-      <c r="B149" s="46"/>
-      <c r="C149" s="6"/>
-      <c r="D149" s="3"/>
-      <c r="E149" s="3"/>
-      <c r="F149" s="3"/>
-      <c r="G149" s="4"/>
-      <c r="H149" s="57"/>
-      <c r="I149" s="57"/>
-      <c r="J149" s="57"/>
-      <c r="K149" s="57"/>
-      <c r="L149" s="6"/>
-      <c r="M149" s="6"/>
-    </row>
-    <row r="150" spans="1:13" ht="15">
-      <c r="A150" s="6"/>
-      <c r="B150" s="46"/>
-      <c r="C150" s="6"/>
-      <c r="D150" s="3"/>
-      <c r="E150" s="3"/>
-      <c r="F150" s="3"/>
-      <c r="G150" s="4"/>
-      <c r="H150" s="57"/>
-      <c r="I150" s="57"/>
-      <c r="J150" s="57"/>
-      <c r="K150" s="57"/>
-      <c r="L150" s="6"/>
-      <c r="M150" s="6"/>
-    </row>
-    <row r="151" spans="1:13" ht="15">
-      <c r="A151" s="6"/>
-      <c r="B151" s="46"/>
-      <c r="C151" s="6"/>
-      <c r="D151" s="3"/>
-      <c r="E151" s="3"/>
-      <c r="F151" s="3"/>
-      <c r="G151" s="4"/>
-      <c r="H151" s="57"/>
-      <c r="I151" s="57"/>
-      <c r="J151" s="57"/>
-      <c r="K151" s="57"/>
-      <c r="L151" s="6"/>
-      <c r="M151" s="6"/>
-    </row>
-    <row r="152" spans="1:13">
-      <c r="A152" s="6"/>
-      <c r="B152" s="46"/>
-      <c r="C152" s="6"/>
-      <c r="D152" s="6"/>
-      <c r="E152" s="6"/>
-      <c r="F152" s="6"/>
-      <c r="G152" s="6"/>
-      <c r="H152" s="58"/>
-      <c r="I152" s="58"/>
-      <c r="J152" s="58"/>
-      <c r="K152" s="58"/>
-      <c r="L152" s="6"/>
-      <c r="M152" s="6"/>
-    </row>
-    <row r="153" spans="1:13">
-      <c r="A153" s="6"/>
-      <c r="B153" s="46"/>
-      <c r="C153" s="6"/>
-      <c r="D153" s="6"/>
-      <c r="E153" s="6"/>
-      <c r="F153" s="6"/>
-      <c r="G153" s="6"/>
-      <c r="H153" s="58"/>
-      <c r="I153" s="58"/>
-      <c r="J153" s="58"/>
-      <c r="K153" s="58"/>
-      <c r="L153" s="6"/>
-      <c r="M153" s="6"/>
-    </row>
-    <row r="154" spans="1:13">
-      <c r="A154" s="6"/>
-      <c r="B154" s="46"/>
-      <c r="C154" s="6"/>
-      <c r="D154" s="6"/>
-      <c r="E154" s="6"/>
-      <c r="F154" s="6"/>
-      <c r="G154" s="6"/>
-      <c r="H154" s="59"/>
-      <c r="I154" s="60"/>
-      <c r="J154" s="60"/>
-      <c r="K154" s="61"/>
-      <c r="L154" s="6"/>
-      <c r="M154" s="6"/>
-    </row>
-    <row r="155" spans="1:13">
-      <c r="A155" s="6"/>
-      <c r="B155" s="46"/>
-      <c r="C155" s="6"/>
-      <c r="D155" s="6"/>
-      <c r="E155" s="6"/>
-      <c r="F155" s="6"/>
-      <c r="G155" s="6"/>
-      <c r="H155" s="59"/>
-      <c r="I155" s="60"/>
-      <c r="J155" s="60"/>
-      <c r="K155" s="61"/>
-      <c r="L155" s="6"/>
-      <c r="M155" s="6"/>
-    </row>
-    <row r="156" spans="1:13">
-      <c r="A156" s="6"/>
-      <c r="B156" s="46"/>
-      <c r="C156" s="6"/>
-      <c r="D156" s="6"/>
-      <c r="E156" s="6"/>
-      <c r="F156" s="6"/>
-      <c r="G156" s="6"/>
-      <c r="H156" s="59"/>
-      <c r="I156" s="60"/>
-      <c r="J156" s="60"/>
-      <c r="K156" s="61"/>
-      <c r="L156" s="6"/>
-      <c r="M156" s="6"/>
-    </row>
-    <row r="157" spans="1:13">
-      <c r="A157" s="6"/>
-      <c r="B157" s="46"/>
-      <c r="C157" s="6"/>
-      <c r="D157" s="6"/>
-      <c r="E157" s="6"/>
-      <c r="F157" s="6"/>
-      <c r="G157" s="6"/>
-      <c r="H157" s="59"/>
-      <c r="I157" s="60"/>
-      <c r="J157" s="60"/>
-      <c r="K157" s="61"/>
-      <c r="L157" s="6"/>
-      <c r="M157" s="6"/>
-    </row>
-    <row r="158" spans="1:13">
-      <c r="A158" s="6"/>
-      <c r="B158" s="46"/>
-      <c r="C158" s="6"/>
-      <c r="D158" s="6"/>
-      <c r="E158" s="6"/>
-      <c r="F158" s="6"/>
-      <c r="G158" s="6"/>
-      <c r="H158" s="59"/>
-      <c r="I158" s="60"/>
-      <c r="J158" s="60"/>
-      <c r="K158" s="61"/>
-      <c r="L158" s="6"/>
-      <c r="M158" s="6"/>
-    </row>
-    <row r="159" spans="1:13">
-      <c r="A159" s="6"/>
-      <c r="B159" s="46"/>
-      <c r="C159" s="6"/>
-      <c r="D159" s="6"/>
-      <c r="E159" s="6"/>
-      <c r="F159" s="6"/>
-      <c r="G159" s="6"/>
-      <c r="H159" s="59"/>
-      <c r="I159" s="60"/>
-      <c r="J159" s="60"/>
-      <c r="K159" s="61"/>
-      <c r="L159" s="6"/>
-      <c r="M159" s="6"/>
-    </row>
-    <row r="160" spans="1:13">
-      <c r="A160" s="6"/>
-      <c r="B160" s="46"/>
-      <c r="C160" s="6"/>
-      <c r="D160" s="6"/>
-      <c r="E160" s="6"/>
-      <c r="F160" s="6"/>
-      <c r="G160" s="6"/>
-      <c r="H160" s="59"/>
-      <c r="I160" s="60"/>
-      <c r="J160" s="60"/>
-      <c r="K160" s="61"/>
-      <c r="L160" s="6"/>
-      <c r="M160" s="6"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="42"/>
+      <c r="J58" s="42"/>
+      <c r="K58" s="42"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="59">
+        <v>30</v>
+      </c>
+      <c r="O58" s="59">
+        <v>1500</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="158">
-    <mergeCell ref="H152:K152"/>
-    <mergeCell ref="H153:K153"/>
-    <mergeCell ref="H154:K154"/>
-    <mergeCell ref="H155:K155"/>
-    <mergeCell ref="H156:K156"/>
-    <mergeCell ref="H157:K157"/>
-    <mergeCell ref="H158:K158"/>
-    <mergeCell ref="H159:K159"/>
-    <mergeCell ref="H160:K160"/>
-    <mergeCell ref="H148:K148"/>
-    <mergeCell ref="H149:K149"/>
-    <mergeCell ref="H150:K150"/>
-    <mergeCell ref="H151:K151"/>
-    <mergeCell ref="H143:K143"/>
-    <mergeCell ref="H144:K144"/>
-    <mergeCell ref="H145:K145"/>
-    <mergeCell ref="H146:K146"/>
-    <mergeCell ref="H147:K147"/>
-    <mergeCell ref="H138:K138"/>
-    <mergeCell ref="H139:K139"/>
-    <mergeCell ref="H140:K140"/>
-    <mergeCell ref="H141:K141"/>
-    <mergeCell ref="H142:K142"/>
-    <mergeCell ref="H133:K133"/>
-    <mergeCell ref="H134:K134"/>
-    <mergeCell ref="H135:K135"/>
-    <mergeCell ref="H136:K136"/>
-    <mergeCell ref="H137:K137"/>
-    <mergeCell ref="H128:K128"/>
-    <mergeCell ref="H129:K129"/>
-    <mergeCell ref="H130:K130"/>
-    <mergeCell ref="H131:K131"/>
-    <mergeCell ref="H132:K132"/>
-    <mergeCell ref="H123:K123"/>
-    <mergeCell ref="H124:K124"/>
-    <mergeCell ref="H125:K125"/>
-    <mergeCell ref="H126:K126"/>
-    <mergeCell ref="H127:K127"/>
-    <mergeCell ref="H118:K118"/>
-    <mergeCell ref="H119:K119"/>
-    <mergeCell ref="H120:K120"/>
-    <mergeCell ref="H121:K121"/>
-    <mergeCell ref="H122:K122"/>
-    <mergeCell ref="H113:K113"/>
-    <mergeCell ref="H114:K114"/>
-    <mergeCell ref="H115:K115"/>
-    <mergeCell ref="H116:K116"/>
-    <mergeCell ref="H117:K117"/>
-    <mergeCell ref="H108:K108"/>
-    <mergeCell ref="H109:K109"/>
-    <mergeCell ref="H110:K110"/>
-    <mergeCell ref="H111:K111"/>
-    <mergeCell ref="H112:K112"/>
-    <mergeCell ref="H103:K103"/>
-    <mergeCell ref="H104:K104"/>
-    <mergeCell ref="H105:K105"/>
-    <mergeCell ref="H106:K106"/>
-    <mergeCell ref="H107:K107"/>
-    <mergeCell ref="H98:K98"/>
-    <mergeCell ref="H99:K99"/>
-    <mergeCell ref="H100:K100"/>
-    <mergeCell ref="H101:K101"/>
-    <mergeCell ref="H102:K102"/>
-    <mergeCell ref="H93:K93"/>
-    <mergeCell ref="H94:K94"/>
-    <mergeCell ref="H95:K95"/>
-    <mergeCell ref="H96:K96"/>
-    <mergeCell ref="H97:K97"/>
-    <mergeCell ref="H88:K88"/>
-    <mergeCell ref="H89:K89"/>
-    <mergeCell ref="H90:K90"/>
-    <mergeCell ref="H91:K91"/>
-    <mergeCell ref="H92:K92"/>
-    <mergeCell ref="H83:K83"/>
-    <mergeCell ref="H84:K84"/>
-    <mergeCell ref="H85:K85"/>
-    <mergeCell ref="H86:K86"/>
-    <mergeCell ref="H87:K87"/>
-    <mergeCell ref="H78:K78"/>
-    <mergeCell ref="H79:K79"/>
-    <mergeCell ref="H80:K80"/>
-    <mergeCell ref="H81:K81"/>
-    <mergeCell ref="H82:K82"/>
-    <mergeCell ref="H73:K73"/>
-    <mergeCell ref="H74:K74"/>
-    <mergeCell ref="H75:K75"/>
-    <mergeCell ref="H76:K76"/>
-    <mergeCell ref="H77:K77"/>
+  <mergeCells count="56">
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="H34:K34"/>
     <mergeCell ref="H25:K25"/>
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="H27:K27"/>
@@ -5910,68 +4567,24 @@
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H35:K35"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="H33:K33"/>
-    <mergeCell ref="H34:K34"/>
-    <mergeCell ref="H45:K45"/>
-    <mergeCell ref="H46:K46"/>
-    <mergeCell ref="H47:K47"/>
-    <mergeCell ref="H48:K48"/>
-    <mergeCell ref="H49:K49"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="H44:K44"/>
-    <mergeCell ref="H55:K55"/>
-    <mergeCell ref="H56:K56"/>
-    <mergeCell ref="H57:K57"/>
-    <mergeCell ref="H58:K58"/>
-    <mergeCell ref="H59:K59"/>
-    <mergeCell ref="H60:K60"/>
-    <mergeCell ref="H50:K50"/>
-    <mergeCell ref="H51:K51"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="H53:K53"/>
-    <mergeCell ref="H54:K54"/>
-    <mergeCell ref="H70:K70"/>
-    <mergeCell ref="H71:K71"/>
-    <mergeCell ref="H72:K72"/>
-    <mergeCell ref="H65:K65"/>
-    <mergeCell ref="H66:K66"/>
-    <mergeCell ref="H67:K67"/>
-    <mergeCell ref="H68:K68"/>
-    <mergeCell ref="H69:K69"/>
-    <mergeCell ref="H61:K61"/>
-    <mergeCell ref="H62:K62"/>
-    <mergeCell ref="H63:K63"/>
-    <mergeCell ref="H64:K64"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F12:G12"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error in Target Reads Required" error="Please enter a decimal or whole number that is at least 120% of the Minimum Reads Required." sqref="E23:E58">
+  <dataValidations count="3">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error in Target Reads Required" error="Please enter a decimal or whole number that is at least 120% of the Minimum Reads Required." sqref="E23:E58" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>1.2 *D23</formula1>
       <formula2>1000000000</formula2>
     </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error in Concentration Entry" error="Please enter a concentration in decimal or whole number format" sqref="N23:N58" xr:uid="{EC099AB9-9451-4478-8EA2-D45C922DD245}">
+      <formula1>0</formula1>
+      <formula2>1000000</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error in Total Amount Entry" error="Please enter a total amoung of DNA in decimal or whole number format_x000a_" sqref="O23:O58" xr:uid="{F7B143F1-AA45-4CA8-85D1-615C1CA39061}">
+      <formula1>0</formula1>
+      <formula2>1000000</formula2>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F10" r:id="rId1"/>
-    <hyperlink ref="F20" r:id="rId2"/>
+    <hyperlink ref="F10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F20" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.13" right="0.13" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="75" orientation="landscape" r:id="rId3"/>
@@ -5980,24 +4593,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
